--- a/2020/cursos/etica/Noveno/Listados Etica 9-1.xlsx
+++ b/2020/cursos/etica/Noveno/Listados Etica 9-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Noveno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34487E10-03D0-43D2-A285-CF428075AA9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FA9B4C-AFB8-40B3-8D58-42794738D4AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="3435" windowWidth="14400" windowHeight="10755" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="14400" windowHeight="13710" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -155,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,13 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,6 +241,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
   <dimension ref="A3:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,6 +665,9 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
+      <c r="D9" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -719,6 +732,9 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
+      <c r="D14" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -1013,6 +1029,9 @@
       </c>
       <c r="C37" t="s">
         <v>36</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="9" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -1023,7 +1042,7 @@
       </c>
       <c r="D38" s="8">
         <f>COUNTA(D4:D37)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/2020/cursos/etica/Noveno/Listados Etica 9-1.xlsx
+++ b/2020/cursos/etica/Noveno/Listados Etica 9-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Noveno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FA9B4C-AFB8-40B3-8D58-42794738D4AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29700A4B-AE3E-4E12-A760-FE650B7D5538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="14400" windowHeight="13710" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,6 +244,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:D38"/>
+  <dimension ref="A3:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,9 +575,10 @@
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -587,8 +591,11 @@
       <c r="D3" s="10">
         <v>43980</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="10">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3860</v>
       </c>
@@ -601,8 +608,11 @@
       <c r="D4" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4047</v>
       </c>
@@ -615,8 +625,11 @@
       <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1897</v>
       </c>
@@ -629,8 +642,11 @@
       <c r="D6" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2252</v>
       </c>
@@ -643,8 +659,11 @@
       <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1985</v>
       </c>
@@ -654,8 +673,11 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2008</v>
       </c>
@@ -668,8 +690,9 @@
       <c r="D9" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1632</v>
       </c>
@@ -682,8 +705,11 @@
       <c r="D10" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4290</v>
       </c>
@@ -696,8 +722,9 @@
       <c r="D11" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3375</v>
       </c>
@@ -710,8 +737,11 @@
       <c r="D12" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1658</v>
       </c>
@@ -721,8 +751,9 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>625</v>
       </c>
@@ -735,8 +766,11 @@
       <c r="D14" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1987</v>
       </c>
@@ -746,8 +780,9 @@
       <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1662</v>
       </c>
@@ -757,8 +792,9 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>3174</v>
       </c>
@@ -768,8 +804,9 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>4291</v>
       </c>
@@ -779,8 +816,11 @@
       <c r="C18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>706</v>
       </c>
@@ -790,8 +830,11 @@
       <c r="C19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1666</v>
       </c>
@@ -804,8 +847,11 @@
       <c r="D20" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1697</v>
       </c>
@@ -818,8 +864,11 @@
       <c r="D21" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>4292</v>
       </c>
@@ -832,8 +881,11 @@
       <c r="D22" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>3871</v>
       </c>
@@ -846,8 +898,11 @@
       <c r="D23" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1670</v>
       </c>
@@ -860,8 +915,11 @@
       <c r="D24" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>4050</v>
       </c>
@@ -874,8 +932,11 @@
       <c r="D25" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1674</v>
       </c>
@@ -888,8 +949,11 @@
       <c r="D26" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2323</v>
       </c>
@@ -902,8 +966,11 @@
       <c r="D27" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>4293</v>
       </c>
@@ -916,8 +983,11 @@
       <c r="D28" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>4051</v>
       </c>
@@ -927,8 +997,9 @@
       <c r="C29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>717</v>
       </c>
@@ -938,8 +1009,9 @@
       <c r="C30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1729</v>
       </c>
@@ -952,8 +1024,9 @@
       <c r="D31" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3590</v>
       </c>
@@ -966,8 +1039,11 @@
       <c r="D32" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1679</v>
       </c>
@@ -977,8 +1053,11 @@
       <c r="C33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1707</v>
       </c>
@@ -991,8 +1070,11 @@
       <c r="D34" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>4294</v>
       </c>
@@ -1005,8 +1087,11 @@
       <c r="D35" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>3512</v>
       </c>
@@ -1019,8 +1104,11 @@
       <c r="D36" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>722</v>
       </c>
@@ -1033,8 +1121,9 @@
       <c r="D37" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" s="9" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" s="9" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9" t="s">
@@ -1042,6 +1131,10 @@
       </c>
       <c r="D38" s="8">
         <f>COUNTA(D4:D37)</f>
+        <v>24</v>
+      </c>
+      <c r="E38" s="8">
+        <f>COUNTA(E4:E37)</f>
         <v>24</v>
       </c>
     </row>

--- a/2020/cursos/etica/Noveno/Listados Etica 9-1.xlsx
+++ b/2020/cursos/etica/Noveno/Listados Etica 9-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Noveno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29700A4B-AE3E-4E12-A760-FE650B7D5538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD05DFEF-D0F3-4CF7-8F38-A40C7A5D0D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -563,10 +563,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:E38"/>
+  <dimension ref="A3:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E37"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,10 +577,10 @@
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -594,8 +596,11 @@
       <c r="E3" s="10">
         <v>44001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="10">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3860</v>
       </c>
@@ -611,8 +616,11 @@
       <c r="E4" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4047</v>
       </c>
@@ -628,8 +636,11 @@
       <c r="E5" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1897</v>
       </c>
@@ -645,8 +656,11 @@
       <c r="E6" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2252</v>
       </c>
@@ -662,8 +676,9 @@
       <c r="E7" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1985</v>
       </c>
@@ -676,8 +691,9 @@
       <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2008</v>
       </c>
@@ -691,8 +707,9 @@
         <v>37</v>
       </c>
       <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1632</v>
       </c>
@@ -708,8 +725,11 @@
       <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4290</v>
       </c>
@@ -723,8 +743,11 @@
         <v>37</v>
       </c>
       <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3375</v>
       </c>
@@ -740,8 +763,11 @@
       <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1658</v>
       </c>
@@ -752,8 +778,9 @@
         <v>12</v>
       </c>
       <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>625</v>
       </c>
@@ -769,8 +796,11 @@
       <c r="E14" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1987</v>
       </c>
@@ -781,8 +811,9 @@
         <v>14</v>
       </c>
       <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1662</v>
       </c>
@@ -793,8 +824,9 @@
         <v>15</v>
       </c>
       <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>3174</v>
       </c>
@@ -805,8 +837,11 @@
         <v>16</v>
       </c>
       <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>4291</v>
       </c>
@@ -819,8 +854,9 @@
       <c r="E18" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>706</v>
       </c>
@@ -833,8 +869,11 @@
       <c r="E19" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1666</v>
       </c>
@@ -850,8 +889,11 @@
       <c r="E20" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1697</v>
       </c>
@@ -867,8 +909,11 @@
       <c r="E21" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>4292</v>
       </c>
@@ -884,8 +929,9 @@
       <c r="E22" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>3871</v>
       </c>
@@ -901,8 +947,11 @@
       <c r="E23" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1670</v>
       </c>
@@ -918,8 +967,9 @@
       <c r="E24" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>4050</v>
       </c>
@@ -935,8 +985,11 @@
       <c r="E25" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1674</v>
       </c>
@@ -952,8 +1005,11 @@
       <c r="E26" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2323</v>
       </c>
@@ -969,8 +1025,11 @@
       <c r="E27" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>4293</v>
       </c>
@@ -986,8 +1045,11 @@
       <c r="E28" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>4051</v>
       </c>
@@ -998,8 +1060,11 @@
         <v>28</v>
       </c>
       <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>717</v>
       </c>
@@ -1010,8 +1075,9 @@
         <v>29</v>
       </c>
       <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1729</v>
       </c>
@@ -1025,8 +1091,11 @@
         <v>37</v>
       </c>
       <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3590</v>
       </c>
@@ -1042,8 +1111,11 @@
       <c r="E32" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1679</v>
       </c>
@@ -1056,8 +1128,11 @@
       <c r="E33" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1707</v>
       </c>
@@ -1073,8 +1148,11 @@
       <c r="E34" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>4294</v>
       </c>
@@ -1090,8 +1168,11 @@
       <c r="E35" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>3512</v>
       </c>
@@ -1107,8 +1188,11 @@
       <c r="E36" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>722</v>
       </c>
@@ -1122,8 +1206,11 @@
         <v>37</v>
       </c>
       <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" s="9" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F37" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="9" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9" t="s">
@@ -1135,6 +1222,10 @@
       </c>
       <c r="E38" s="8">
         <f>COUNTA(E4:E37)</f>
+        <v>24</v>
+      </c>
+      <c r="F38" s="8">
+        <f>COUNTA(F4:F37)</f>
         <v>24</v>
       </c>
     </row>

--- a/2020/cursos/etica/Noveno/Listados Etica 9-1.xlsx
+++ b/2020/cursos/etica/Noveno/Listados Etica 9-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Noveno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD05DFEF-D0F3-4CF7-8F38-A40C7A5D0D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BBDA84-C328-46B7-B9ED-EAC025FB0130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -155,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +182,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,6 +254,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,9 +576,9 @@
   <dimension ref="A3:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +686,9 @@
       <c r="E7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1226,7 +1238,7 @@
       </c>
       <c r="F38" s="8">
         <f>COUNTA(F4:F37)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/2020/cursos/etica/Noveno/Listados Etica 9-1.xlsx
+++ b/2020/cursos/etica/Noveno/Listados Etica 9-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Noveno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BBDA84-C328-46B7-B9ED-EAC025FB0130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8833A879-9157-4BF9-BE61-87F505C3D109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -573,12 +573,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:F38"/>
+  <dimension ref="A3:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,11 +586,12 @@
     <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -609,8 +610,11 @@
       <c r="F3" s="10">
         <v>44022</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="10">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3860</v>
       </c>
@@ -629,8 +633,11 @@
       <c r="F4" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4047</v>
       </c>
@@ -649,8 +656,9 @@
       <c r="F5" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1897</v>
       </c>
@@ -669,8 +677,11 @@
       <c r="F6" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2252</v>
       </c>
@@ -689,8 +700,9 @@
       <c r="F7" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1985</v>
       </c>
@@ -704,8 +716,11 @@
         <v>37</v>
       </c>
       <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2008</v>
       </c>
@@ -720,8 +735,9 @@
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1632</v>
       </c>
@@ -740,8 +756,11 @@
       <c r="F10" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4290</v>
       </c>
@@ -758,8 +777,9 @@
       <c r="F11" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3375</v>
       </c>
@@ -778,8 +798,11 @@
       <c r="F12" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1658</v>
       </c>
@@ -791,8 +814,11 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>625</v>
       </c>
@@ -811,8 +837,11 @@
       <c r="F14" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1987</v>
       </c>
@@ -824,8 +853,9 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1662</v>
       </c>
@@ -837,8 +867,9 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>3174</v>
       </c>
@@ -852,8 +883,9 @@
       <c r="F17" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>4291</v>
       </c>
@@ -867,8 +899,11 @@
         <v>37</v>
       </c>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>706</v>
       </c>
@@ -884,8 +919,9 @@
       <c r="F19" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1666</v>
       </c>
@@ -904,8 +940,11 @@
       <c r="F20" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1697</v>
       </c>
@@ -924,8 +963,11 @@
       <c r="F21" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>4292</v>
       </c>
@@ -942,8 +984,11 @@
         <v>37</v>
       </c>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>3871</v>
       </c>
@@ -962,8 +1007,11 @@
       <c r="F23" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1670</v>
       </c>
@@ -980,8 +1028,9 @@
         <v>37</v>
       </c>
       <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>4050</v>
       </c>
@@ -1000,8 +1049,11 @@
       <c r="F25" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1674</v>
       </c>
@@ -1020,8 +1072,11 @@
       <c r="F26" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2323</v>
       </c>
@@ -1040,8 +1095,11 @@
       <c r="F27" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>4293</v>
       </c>
@@ -1060,8 +1118,11 @@
       <c r="F28" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>4051</v>
       </c>
@@ -1075,8 +1136,11 @@
       <c r="F29" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>717</v>
       </c>
@@ -1088,8 +1152,9 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1729</v>
       </c>
@@ -1106,8 +1171,11 @@
       <c r="F31" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3590</v>
       </c>
@@ -1126,8 +1194,11 @@
       <c r="F32" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1679</v>
       </c>
@@ -1143,8 +1214,11 @@
       <c r="F33" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1707</v>
       </c>
@@ -1163,8 +1237,11 @@
       <c r="F34" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>4294</v>
       </c>
@@ -1183,8 +1260,11 @@
       <c r="F35" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>3512</v>
       </c>
@@ -1203,8 +1283,9 @@
       <c r="F36" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>722</v>
       </c>
@@ -1221,8 +1302,9 @@
       <c r="F37" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" s="9" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9" t="s">
@@ -1239,6 +1321,10 @@
       <c r="F38" s="8">
         <f>COUNTA(F4:F37)</f>
         <v>25</v>
+      </c>
+      <c r="G38" s="8">
+        <f>COUNTA(G4:G37)</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
